--- a/Elf_BaseFramework/src/test/resources/testData/testData.xlsx
+++ b/Elf_BaseFramework/src/test/resources/testData/testData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8811512-950B-FD48-966B-C281AB9BBC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+  <si>
+    <t>Ajay S1233</t>
+  </si>
+  <si>
+    <t>Ajay 123456</t>
+  </si>
+  <si>
+    <t>actiTIME - Enter Time-Track</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF17C6A3"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -53,8 +76,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -334,15 +359,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Elf_BaseFramework/src/test/resources/testData/testData.xlsx
+++ b/Elf_BaseFramework/src/test/resources/testData/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8811512-950B-FD48-966B-C281AB9BBC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C15DB61-7270-2441-8467-116C524FAF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Ajay S1233</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>actiTIME - Enter Time-Track</t>
+  </si>
+  <si>
+    <t>actiTIME - Reports Dashboard</t>
+  </si>
+  <si>
+    <t>actiTIME - Staff Performance Report</t>
   </si>
 </sst>
 </file>
@@ -360,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -391,6 +397,16 @@
         <v>2</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
